--- a/flows/DGP_fund_flow_data.xlsx
+++ b/flows/DGP_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4026"/>
+  <dimension ref="A1:B4043"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40695,6 +40695,176 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4027">
+      <c r="A4027" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B4027" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4028">
+      <c r="A4028" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B4028" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4029">
+      <c r="A4029" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B4029" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4030">
+      <c r="A4030" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B4030" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4031">
+      <c r="A4031" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B4031" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4032">
+      <c r="A4032" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B4032" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4033">
+      <c r="A4033" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B4033" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4034">
+      <c r="A4034" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B4034" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4035">
+      <c r="A4035" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B4035" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4036">
+      <c r="A4036" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B4036" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4037">
+      <c r="A4037" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B4037" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4038">
+      <c r="A4038" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B4038" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4039">
+      <c r="A4039" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B4039" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4040">
+      <c r="A4040" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B4040" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4041">
+      <c r="A4041" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B4041" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4042">
+      <c r="A4042" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B4042" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4043">
+      <c r="A4043" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B4043" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
